--- a/natmiOut/OldD0/LR-pairs_lrc2p/Jag1-Notch4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Jag1-Notch4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.22776631639784</v>
+        <v>7.636417666666667</v>
       </c>
       <c r="H2">
-        <v>7.22776631639784</v>
+        <v>22.909253</v>
       </c>
       <c r="I2">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="J2">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N2">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O2">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P2">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q2">
-        <v>133.2461332084405</v>
+        <v>231.7334705037517</v>
       </c>
       <c r="R2">
-        <v>133.2461332084405</v>
+        <v>2085.601234533765</v>
       </c>
       <c r="S2">
-        <v>0.08240013549606509</v>
+        <v>0.09255413895666585</v>
       </c>
       <c r="T2">
-        <v>0.08240013549606509</v>
+        <v>0.09255413895666585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.22776631639784</v>
+        <v>7.636417666666667</v>
       </c>
       <c r="H3">
-        <v>7.22776631639784</v>
+        <v>22.909253</v>
       </c>
       <c r="I3">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="J3">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N3">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O3">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P3">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q3">
-        <v>22.60770097626198</v>
+        <v>24.62063274496877</v>
       </c>
       <c r="R3">
-        <v>22.60770097626198</v>
+        <v>221.585694704719</v>
       </c>
       <c r="S3">
-        <v>0.01398072558536735</v>
+        <v>0.009833458495767814</v>
       </c>
       <c r="T3">
-        <v>0.01398072558536735</v>
+        <v>0.009833458495767814</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.22776631639784</v>
+        <v>7.636417666666667</v>
       </c>
       <c r="H4">
-        <v>7.22776631639784</v>
+        <v>22.909253</v>
       </c>
       <c r="I4">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="J4">
-        <v>0.1049244998673135</v>
+        <v>0.108532481296676</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.91146110256232</v>
+        <v>2.014730333333333</v>
       </c>
       <c r="N4">
-        <v>1.91146110256232</v>
+        <v>6.044191</v>
       </c>
       <c r="O4">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="P4">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="Q4">
-        <v>13.81559417220461</v>
+        <v>15.38532231103589</v>
       </c>
       <c r="R4">
-        <v>13.81559417220461</v>
+        <v>138.467900799323</v>
       </c>
       <c r="S4">
-        <v>0.008543638785881066</v>
+        <v>0.006144883844242315</v>
       </c>
       <c r="T4">
-        <v>0.008543638785881066</v>
+        <v>0.006144883844242316</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.9670457765529</v>
+        <v>15.103385</v>
       </c>
       <c r="H5">
-        <v>14.9670457765529</v>
+        <v>45.31015499999999</v>
       </c>
       <c r="I5">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="J5">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N5">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O5">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P5">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q5">
-        <v>275.9221712460276</v>
+        <v>458.324829151475</v>
       </c>
       <c r="R5">
-        <v>275.9221712460276</v>
+        <v>4124.923462363275</v>
       </c>
       <c r="S5">
-        <v>0.1706317755688608</v>
+        <v>0.183054523079302</v>
       </c>
       <c r="T5">
-        <v>0.1706317755688608</v>
+        <v>0.183054523079302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.9670457765529</v>
+        <v>15.103385</v>
       </c>
       <c r="H6">
-        <v>14.9670457765529</v>
+        <v>45.31015499999999</v>
       </c>
       <c r="I6">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="J6">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N6">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O6">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P6">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q6">
-        <v>46.81536184238026</v>
+        <v>48.69493937111832</v>
       </c>
       <c r="R6">
-        <v>46.81536184238026</v>
+        <v>438.2544543400649</v>
       </c>
       <c r="S6">
-        <v>0.0289508750927497</v>
+        <v>0.01944871483279295</v>
       </c>
       <c r="T6">
-        <v>0.0289508750927497</v>
+        <v>0.01944871483279295</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.9670457765529</v>
+        <v>15.103385</v>
       </c>
       <c r="H7">
-        <v>14.9670457765529</v>
+        <v>45.31015499999999</v>
       </c>
       <c r="I7">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="J7">
-        <v>0.2172745664221554</v>
+        <v>0.214656652056136</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.91146110256232</v>
+        <v>2.014730333333333</v>
       </c>
       <c r="N7">
-        <v>1.91146110256232</v>
+        <v>6.044191</v>
       </c>
       <c r="O7">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="P7">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="Q7">
-        <v>28.60892582215052</v>
+        <v>30.42924789551166</v>
       </c>
       <c r="R7">
-        <v>28.60892582215052</v>
+        <v>273.863231059605</v>
       </c>
       <c r="S7">
-        <v>0.01769191576054494</v>
+        <v>0.01215341414404106</v>
       </c>
       <c r="T7">
-        <v>0.01769191576054494</v>
+        <v>0.01215341414404106</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.6905895581222</v>
+        <v>47.62086333333334</v>
       </c>
       <c r="H8">
-        <v>46.6905895581222</v>
+        <v>142.86259</v>
       </c>
       <c r="I8">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="J8">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.4353128443211</v>
+        <v>30.345835</v>
       </c>
       <c r="N8">
-        <v>18.4353128443211</v>
+        <v>91.03750500000001</v>
       </c>
       <c r="O8">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855476</v>
       </c>
       <c r="P8">
-        <v>0.785327884338429</v>
+        <v>0.8527782452855475</v>
       </c>
       <c r="Q8">
-        <v>860.7556253897748</v>
+        <v>1445.094861270884</v>
       </c>
       <c r="R8">
-        <v>860.7556253897748</v>
+        <v>13005.85375143795</v>
       </c>
       <c r="S8">
-        <v>0.5322959732735032</v>
+        <v>0.5771695832495798</v>
       </c>
       <c r="T8">
-        <v>0.5322959732735032</v>
+        <v>0.5771695832495797</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.6905895581222</v>
+        <v>47.62086333333334</v>
       </c>
       <c r="H9">
-        <v>46.6905895581222</v>
+        <v>142.86259</v>
       </c>
       <c r="I9">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="J9">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.12789594829197</v>
+        <v>3.224107666666666</v>
       </c>
       <c r="N9">
-        <v>3.12789594829197</v>
+        <v>9.672322999999999</v>
       </c>
       <c r="O9">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029813</v>
       </c>
       <c r="P9">
-        <v>0.1332455775633645</v>
+        <v>0.09060383010029811</v>
       </c>
       <c r="Q9">
-        <v>146.0433059022138</v>
+        <v>153.5347905662856</v>
       </c>
       <c r="R9">
-        <v>146.0433059022138</v>
+        <v>1381.81311509657</v>
       </c>
       <c r="S9">
-        <v>0.09031397688524745</v>
+        <v>0.06132165677173736</v>
       </c>
       <c r="T9">
-        <v>0.09031397688524745</v>
+        <v>0.06132165677173735</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.6905895581222</v>
+        <v>47.62086333333334</v>
       </c>
       <c r="H10">
-        <v>46.6905895581222</v>
+        <v>142.86259</v>
       </c>
       <c r="I10">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="J10">
-        <v>0.6778009337105311</v>
+        <v>0.676810866647188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.91146110256232</v>
+        <v>2.014730333333333</v>
       </c>
       <c r="N10">
-        <v>1.91146110256232</v>
+        <v>6.044191</v>
       </c>
       <c r="O10">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="P10">
-        <v>0.08142653809820651</v>
+        <v>0.05661792461415433</v>
       </c>
       <c r="Q10">
-        <v>89.24724579605301</v>
+        <v>95.94319785718778</v>
       </c>
       <c r="R10">
-        <v>89.24724579605301</v>
+        <v>863.4887807146901</v>
       </c>
       <c r="S10">
-        <v>0.0551909835517805</v>
+        <v>0.03831962662587095</v>
       </c>
       <c r="T10">
-        <v>0.0551909835517805</v>
+        <v>0.03831962662587095</v>
       </c>
     </row>
   </sheetData>
